--- a/codigo_final_organizado/analisis/Resultados_analisis/Tamaño/N_Train_200/Tests_Estadisticos/dm_comparaciones_EnCQR-LSTM_No_lineal_Estacionario_SETAR.xlsx
+++ b/codigo_final_organizado/analisis/Resultados_analisis/Tamaño/N_Train_200/Tests_Estadisticos/dm_comparaciones_EnCQR-LSTM_No_lineal_Estacionario_SETAR.xlsx
@@ -438,10 +438,10 @@
         <v>40</v>
       </c>
       <c r="C2">
-        <v>-0.3563413896835034</v>
+        <v>-0.3325567634943948</v>
       </c>
       <c r="D2">
-        <v>0.7216296880191999</v>
+        <v>0.7426168946456271</v>
       </c>
       <c r="E2">
         <v>0.83889796511598</v>
@@ -464,10 +464,10 @@
         <v>60</v>
       </c>
       <c r="C3">
-        <v>-0.2842037798693725</v>
+        <v>-0.2488684190128471</v>
       </c>
       <c r="D3">
-        <v>0.776289263403148</v>
+        <v>0.8057711849165643</v>
       </c>
       <c r="E3">
         <v>0.83889796511598</v>
@@ -490,10 +490,10 @@
         <v>100</v>
       </c>
       <c r="C4">
-        <v>0.3636557322463637</v>
+        <v>0.3499099854345538</v>
       </c>
       <c r="D4">
-        <v>0.7161608870570788</v>
+        <v>0.729733879251119</v>
       </c>
       <c r="E4">
         <v>0.83889796511598</v>
@@ -516,10 +516,10 @@
         <v>200</v>
       </c>
       <c r="C5">
-        <v>0.03257070194719346</v>
+        <v>0.02638432778644234</v>
       </c>
       <c r="D5">
-        <v>0.9740208051651755</v>
+        <v>0.9791886644828323</v>
       </c>
       <c r="E5">
         <v>0.83889796511598</v>
@@ -542,10 +542,10 @@
         <v>60</v>
       </c>
       <c r="C6">
-        <v>0.1603556980820502</v>
+        <v>0.163690994870002</v>
       </c>
       <c r="D6">
-        <v>0.8726201753612655</v>
+        <v>0.8714688851860588</v>
       </c>
       <c r="E6">
         <v>0.8453514015685502</v>
@@ -568,10 +568,10 @@
         <v>100</v>
       </c>
       <c r="C7">
-        <v>0.694353558778394</v>
+        <v>0.8517170263947755</v>
       </c>
       <c r="D7">
-        <v>0.4875565731255136</v>
+        <v>0.4035475488691964</v>
       </c>
       <c r="E7">
         <v>0.8453514015685502</v>
@@ -594,10 +594,10 @@
         <v>200</v>
       </c>
       <c r="C8">
-        <v>0.4933628801254719</v>
+        <v>0.5157727461775639</v>
       </c>
       <c r="D8">
-        <v>0.6218207286196602</v>
+        <v>0.6111579654143564</v>
       </c>
       <c r="E8">
         <v>0.8453514015685502</v>
@@ -620,10 +620,10 @@
         <v>100</v>
       </c>
       <c r="C9">
-        <v>0.6953531965150884</v>
+        <v>0.7384218225459965</v>
       </c>
       <c r="D9">
-        <v>0.4869302082861848</v>
+        <v>0.4680630473385654</v>
       </c>
       <c r="E9">
         <v>0.8425597002257755</v>
@@ -646,10 +646,10 @@
         <v>200</v>
       </c>
       <c r="C10">
-        <v>0.3280453002145666</v>
+        <v>0.2497552347405249</v>
       </c>
       <c r="D10">
-        <v>0.7429183137977615</v>
+        <v>0.8050939345185331</v>
       </c>
       <c r="E10">
         <v>0.8425597002257755</v>
@@ -672,10 +672,10 @@
         <v>200</v>
       </c>
       <c r="C11">
-        <v>-0.3264019691207254</v>
+        <v>-0.2761774934693786</v>
       </c>
       <c r="D11">
-        <v>0.7441609277082168</v>
+        <v>0.7849895650422689</v>
       </c>
       <c r="E11">
         <v>0.8343460419090608</v>
